--- a/ReOrderList.xlsx
+++ b/ReOrderList.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExportTable" displayName="ExportTable" ref="A8:C10" headerRowCount="1">
-  <autoFilter ref="A8:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ExportTable" displayName="ExportTable" ref="A8:C16" headerRowCount="1">
+  <autoFilter ref="A8:C16"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ProductName"/>
     <tableColumn id="2" name="TotalQuantityAvailable"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
   </cols>
@@ -465,27 +465,105 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Galic Gun</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Yero</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Glove (M)</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>adaDwdaddadDAdwda</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jell</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
-        <v>5</v>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hayley</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
